--- a/吐槽日记.xlsx
+++ b/吐槽日记.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279">
-  <si>
-    <t>合肥公司避坑（摸鱼群→）</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280">
+  <si>
+    <t xml:space="preserve">合肥公司避坑（摸鱼群→） </t>
   </si>
   <si>
     <t>请大家素质修改，不要随便删别人的评价，不要随便删别人的评价，不要随便删别人的评价！（里面有HR）[请勿删除]</t>
@@ -885,6 +885,9 @@
   </si>
   <si>
     <t>我也是</t>
+  </si>
+  <si>
+    <t>合肥公司避坑（摸鱼群→）</t>
   </si>
   <si>
     <t>请大家素质修改，不要随便删别人的评价，不要随便删别人的评价，不要随便删别人的评价！（里面有HR）</t>
@@ -2306,7 +2309,7 @@
   <dimension ref="A1:F136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
@@ -4012,13 +4015,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="74" customHeight="1" spans="1:26">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="35"/>

--- a/吐槽日记.xlsx
+++ b/吐槽日记.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281">
   <si>
     <t xml:space="preserve">合肥公司避坑（摸鱼群→） </t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>正面评论</t>
+  </si>
+  <si>
+    <t>公司福利</t>
   </si>
   <si>
     <t>吐槽/存疑</t>
@@ -1392,7 +1395,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1493,6 +1496,43 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1616,7 +1656,7 @@
     <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="26" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1649,7 +1689,7 @@
     <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1667,19 +1707,19 @@
     <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1715,7 +1755,7 @@
     <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1733,13 +1773,13 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1748,11 +1788,11 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1912,7 +1952,10 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1959,6 +2002,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2306,23 +2352,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F136"/>
+  <dimension ref="A1:G136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="13.5357142857143" customWidth="1"/>
     <col min="2" max="2" width="10.7053571428571" customWidth="1"/>
     <col min="3" max="3" width="21.5714285714286" customWidth="1"/>
     <col min="4" max="4" width="26.1875" customWidth="1"/>
-    <col min="5" max="5" width="17.8482142857143" customWidth="1"/>
-    <col min="6" max="6" width="24.6964285714286" customWidth="1"/>
+    <col min="5" max="6" width="17.8482142857143" customWidth="1"/>
+    <col min="7" max="7" width="24.6964285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26" spans="1:6">
+    <row r="1" ht="26" spans="1:7">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -2331,1655 +2377,1793 @@
       <c r="D1" s="52"/>
       <c r="E1" s="52"/>
       <c r="F1" s="52"/>
-    </row>
-    <row r="2" ht="68" customHeight="1" spans="1:6">
+      <c r="G1" s="52"/>
+    </row>
+    <row r="2" ht="68" customHeight="1" spans="1:7">
       <c r="A2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="69" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="54" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="70" t="s">
+      <c r="F3" s="72" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" ht="183" spans="1:6">
-      <c r="A4" s="56" t="s">
+      <c r="G3" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="56" t="s">
+    </row>
+    <row r="4" ht="183" spans="1:7">
+      <c r="A4" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="B4" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="C4" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-    </row>
-    <row r="5" ht="244" spans="1:6">
-      <c r="A5" s="56" t="s">
+      <c r="D4" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+    </row>
+    <row r="5" ht="244" spans="1:7">
+      <c r="A5" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="B5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67" t="s">
+      <c r="C5" s="57" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" ht="31" spans="1:6">
-      <c r="A6" s="57" t="s">
+      <c r="D5" s="58"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="57" t="s">
+    </row>
+    <row r="6" ht="31" spans="1:7">
+      <c r="A6" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-    </row>
-    <row r="7" ht="46" spans="1:6">
-      <c r="A7" s="57" t="s">
+      <c r="B6" s="59"/>
+      <c r="C6" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="56" t="s">
+      <c r="D6" s="58"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+    </row>
+    <row r="7" ht="46" spans="1:7">
+      <c r="A7" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="B7" s="58"/>
+      <c r="C7" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-    </row>
-    <row r="8" ht="46" spans="1:6">
-      <c r="A8" s="57" t="s">
+      <c r="D7" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+    </row>
+    <row r="8" ht="46" spans="1:7">
+      <c r="A8" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="B8" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-    </row>
-    <row r="9" ht="365" spans="1:6">
-      <c r="A9" s="56" t="s">
+      <c r="C8" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="56" t="s">
+      <c r="D8" s="58"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+    </row>
+    <row r="9" ht="365" spans="1:7">
+      <c r="A9" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-    </row>
-    <row r="10" ht="46" spans="1:6">
-      <c r="A10" s="57" t="s">
+      <c r="B9" s="58"/>
+      <c r="C9" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57" t="s">
+      <c r="D9" s="58"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+    </row>
+    <row r="10" ht="46" spans="1:7">
+      <c r="A10" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-    </row>
-    <row r="11" ht="31" spans="1:6">
-      <c r="A11" s="57" t="s">
+      <c r="B10" s="58"/>
+      <c r="C10" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57" t="s">
+      <c r="D10" s="58"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+    </row>
+    <row r="11" ht="31" spans="1:7">
+      <c r="A11" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="57" t="s">
+      <c r="B11" s="58"/>
+      <c r="C11" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-    </row>
-    <row r="13" ht="76" spans="1:6">
-      <c r="A13" s="57" t="s">
+      <c r="D11" s="58"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57" t="s">
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+    </row>
+    <row r="13" ht="76" spans="1:7">
+      <c r="A13" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-    </row>
-    <row r="14" ht="107" spans="1:6">
-      <c r="A14" s="57" t="s">
+      <c r="B13" s="58"/>
+      <c r="C13" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="59" t="s">
+      <c r="D13" s="58"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+    </row>
+    <row r="14" ht="107" spans="1:7">
+      <c r="A14" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-    </row>
-    <row r="15" ht="61" spans="1:6">
-      <c r="A15" s="57" t="s">
+      <c r="B14" s="58"/>
+      <c r="C14" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="D14" s="58"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+    </row>
+    <row r="15" ht="61" spans="1:7">
+      <c r="A15" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="B15" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-    </row>
-    <row r="16" ht="31" spans="1:6">
-      <c r="A16" s="57" t="s">
+      <c r="C15" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57" t="s">
+      <c r="D15" s="58"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+    </row>
+    <row r="16" ht="31" spans="1:7">
+      <c r="A16" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-    </row>
-    <row r="17" ht="137" spans="1:6">
-      <c r="A17" s="57" t="s">
+      <c r="B16" s="58"/>
+      <c r="C16" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="56" t="s">
+      <c r="D16" s="58"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+    </row>
+    <row r="17" ht="137" spans="1:7">
+      <c r="A17" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-    </row>
-    <row r="18" ht="122" spans="1:6">
-      <c r="A18" s="57" t="s">
+      <c r="B17" s="58"/>
+      <c r="C17" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="D17" s="58"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+    </row>
+    <row r="18" ht="122" spans="1:7">
+      <c r="A18" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="57" t="s">
+      <c r="C18" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-    </row>
-    <row r="19" ht="46" spans="1:6">
-      <c r="A19" s="57" t="s">
+      <c r="D18" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57" t="s">
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+    </row>
+    <row r="19" ht="46" spans="1:7">
+      <c r="A19" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-    </row>
-    <row r="20" ht="61" spans="1:6">
-      <c r="A20" s="57" t="s">
+      <c r="B19" s="58"/>
+      <c r="C19" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="D19" s="58"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+    </row>
+    <row r="20" ht="61" spans="1:7">
+      <c r="A20" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="B20" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="57"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-    </row>
-    <row r="21" ht="107" spans="1:6">
-      <c r="A21" s="57" t="s">
+      <c r="C20" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57" t="s">
+      <c r="D20" s="58"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+    </row>
+    <row r="21" ht="107" spans="1:7">
+      <c r="A21" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-    </row>
-    <row r="22" ht="61" spans="1:6">
-      <c r="A22" s="57" t="s">
+      <c r="B21" s="58"/>
+      <c r="C21" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="D21" s="58"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+    </row>
+    <row r="22" ht="61" spans="1:7">
+      <c r="A22" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="B22" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="57" t="s">
+      <c r="C22" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-    </row>
-    <row r="23" ht="61" spans="1:6">
-      <c r="A23" s="57" t="s">
+      <c r="D22" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57" t="s">
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+    </row>
+    <row r="23" ht="61" spans="1:7">
+      <c r="A23" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="57"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-    </row>
-    <row r="24" ht="46" spans="1:6">
-      <c r="A24" s="57" t="s">
+      <c r="B23" s="58"/>
+      <c r="C23" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57" t="s">
+      <c r="D23" s="58"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+    </row>
+    <row r="24" ht="46" spans="1:7">
+      <c r="A24" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="57"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-    </row>
-    <row r="25" ht="76" spans="1:6">
-      <c r="A25" s="57" t="s">
+      <c r="B24" s="58"/>
+      <c r="C24" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57" t="s">
+      <c r="D24" s="58"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+    </row>
+    <row r="25" ht="76" spans="1:7">
+      <c r="A25" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-    </row>
-    <row r="26" ht="198" spans="1:6">
-      <c r="A26" s="57" t="s">
+      <c r="B25" s="58"/>
+      <c r="C25" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="D25" s="58"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+    </row>
+    <row r="26" ht="198" spans="1:7">
+      <c r="A26" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="57" t="s">
+      <c r="B26" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-    </row>
-    <row r="27" ht="122" spans="1:6">
-      <c r="A27" s="57" t="s">
+      <c r="C26" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="57" t="s">
+      <c r="D26" s="58"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+    </row>
+    <row r="27" ht="122" spans="1:7">
+      <c r="A27" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="56" t="s">
+      <c r="B27" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-    </row>
-    <row r="28" ht="107" spans="1:6">
-      <c r="A28" s="57" t="s">
+      <c r="C27" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="56" t="s">
+      <c r="D27" s="58"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+    </row>
+    <row r="28" ht="107" spans="1:7">
+      <c r="A28" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="57"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-    </row>
-    <row r="29" ht="61" spans="1:6">
-      <c r="A29" s="57" t="s">
+      <c r="B28" s="58"/>
+      <c r="C28" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="56" t="s">
+      <c r="D28" s="58"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+    </row>
+    <row r="29" ht="61" spans="1:7">
+      <c r="A29" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="57" t="s">
+      <c r="B29" s="58"/>
+      <c r="C29" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-    </row>
-    <row r="30" ht="92" spans="1:6">
-      <c r="A30" s="57" t="s">
+      <c r="D29" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+    </row>
+    <row r="30" ht="92" spans="1:7">
+      <c r="A30" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="57" t="s">
+      <c r="B30" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="57" t="s">
+      <c r="C30" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-    </row>
-    <row r="31" ht="76" spans="1:6">
-      <c r="A31" s="57" t="s">
+      <c r="D30" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57" t="s">
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+    </row>
+    <row r="31" ht="76" spans="1:7">
+      <c r="A31" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-    </row>
-    <row r="32" ht="152" spans="1:6">
-      <c r="A32" s="56" t="s">
+      <c r="B31" s="58"/>
+      <c r="C31" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="56" t="s">
+      <c r="D31" s="58"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+    </row>
+    <row r="32" ht="152" spans="1:7">
+      <c r="A32" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="57" t="s">
+      <c r="B32" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="57" t="s">
+      <c r="C32" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-    </row>
-    <row r="33" ht="152" spans="1:6">
-      <c r="A33" s="57" t="s">
+      <c r="D32" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57" t="s">
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+    </row>
+    <row r="33" ht="152" spans="1:7">
+      <c r="A33" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="D33" s="57"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-    </row>
-    <row r="34" ht="31" spans="1:6">
-      <c r="A34" s="57" t="s">
+      <c r="B33" s="58"/>
+      <c r="C33" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57" t="s">
+      <c r="D33" s="58"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
+    </row>
+    <row r="34" ht="31" spans="1:7">
+      <c r="A34" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="57"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="57" t="s">
+      <c r="B34" s="58"/>
+      <c r="C34" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57" t="s">
+      <c r="D34" s="58"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="D35" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-    </row>
-    <row r="36" ht="31" spans="1:6">
-      <c r="A36" s="57" t="s">
+      <c r="B35" s="58"/>
+      <c r="C35" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="56" t="s">
+      <c r="D35" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
+    </row>
+    <row r="36" ht="31" spans="1:7">
+      <c r="A36" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="C36" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="57"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-    </row>
-    <row r="37" ht="46" spans="1:6">
-      <c r="A37" s="57" t="s">
+      <c r="B36" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57" t="s">
+      <c r="C36" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="58"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
+    </row>
+    <row r="37" ht="46" spans="1:7">
+      <c r="A37" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="57"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-    </row>
-    <row r="38" ht="107" spans="1:6">
-      <c r="A38" s="57" t="s">
+      <c r="B37" s="58"/>
+      <c r="C37" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57" t="s">
+      <c r="D37" s="58"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+    </row>
+    <row r="38" ht="107" spans="1:7">
+      <c r="A38" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="57" t="s">
+      <c r="B38" s="58"/>
+      <c r="C38" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-    </row>
-    <row r="39" ht="61" spans="1:6">
-      <c r="A39" s="57" t="s">
+      <c r="D38" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="57" t="s">
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+    </row>
+    <row r="39" ht="61" spans="1:7">
+      <c r="A39" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="56" t="s">
+      <c r="B39" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="57"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-    </row>
-    <row r="40" ht="409.5" spans="1:6">
-      <c r="A40" s="57" t="s">
+      <c r="C39" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="57"/>
-      <c r="C40" s="57" t="s">
+      <c r="D39" s="58"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+    </row>
+    <row r="40" ht="409.5" spans="1:7">
+      <c r="A40" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="D40" s="57"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="57" t="s">
+      <c r="B40" s="58"/>
+      <c r="C40" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="B41" s="57"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-    </row>
-    <row r="42" ht="122" spans="1:6">
-      <c r="A42" s="57" t="s">
+      <c r="D40" s="58"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="B42" s="57"/>
-      <c r="C42" s="57" t="s">
+      <c r="B41" s="58"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+    </row>
+    <row r="42" ht="122" spans="1:7">
+      <c r="A42" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="57"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-    </row>
-    <row r="43" ht="76" spans="1:6">
-      <c r="A43" s="57" t="s">
+      <c r="B42" s="58"/>
+      <c r="C42" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="B43" s="57"/>
-      <c r="C43" s="56" t="s">
+      <c r="D42" s="58"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+    </row>
+    <row r="43" ht="76" spans="1:7">
+      <c r="A43" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="D43" s="57"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-    </row>
-    <row r="44" ht="274" spans="1:6">
-      <c r="A44" s="57" t="s">
+      <c r="B43" s="58"/>
+      <c r="C43" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="B44" s="61" t="s">
+      <c r="D43" s="58"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
+    </row>
+    <row r="44" ht="274" spans="1:7">
+      <c r="A44" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="56" t="s">
+      <c r="B44" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="D44" s="57"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-    </row>
-    <row r="45" ht="122" spans="1:6">
-      <c r="A45" s="57" t="s">
+      <c r="C44" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="B45" s="62" t="s">
+      <c r="D44" s="58"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
+    </row>
+    <row r="45" ht="122" spans="1:7">
+      <c r="A45" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="C45" s="57" t="s">
+      <c r="B45" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="D45" s="57"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-    </row>
-    <row r="46" ht="152" spans="1:6">
-      <c r="A46" s="62" t="s">
+      <c r="C45" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="B46" s="57"/>
-      <c r="C46" s="63" t="s">
+      <c r="D45" s="58"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="68"/>
+    </row>
+    <row r="46" ht="152" spans="1:7">
+      <c r="A46" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="D46" s="57" t="s">
+      <c r="B46" s="58"/>
+      <c r="C46" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-    </row>
-    <row r="47" ht="61" spans="1:6">
-      <c r="A47" s="57" t="s">
+      <c r="D46" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="B47" s="57" t="s">
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
+    </row>
+    <row r="47" ht="61" spans="1:7">
+      <c r="A47" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="C47" s="63" t="s">
+      <c r="B47" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="D47" s="57"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="57" t="s">
+      <c r="C47" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="B48" s="57"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="57" t="s">
+      <c r="D47" s="58"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="B49" s="57"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="57" t="s">
+      <c r="B48" s="58"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="B50" s="57"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
-    </row>
-    <row r="51" ht="46" spans="1:6">
-      <c r="A51" s="57" t="s">
+      <c r="B49" s="58"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="B51" s="57"/>
-      <c r="C51" s="64" t="s">
+      <c r="B50" s="58"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="68"/>
+    </row>
+    <row r="51" ht="46" spans="1:7">
+      <c r="A51" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="D51" s="57"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="67"/>
-    </row>
-    <row r="52" ht="92" spans="1:6">
-      <c r="A52" s="57" t="s">
+      <c r="B51" s="58"/>
+      <c r="C51" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="B52" s="57" t="s">
+      <c r="D51" s="58"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="68"/>
+    </row>
+    <row r="52" ht="92" spans="1:7">
+      <c r="A52" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="C52" s="65" t="s">
+      <c r="B52" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="D52" s="57"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="57" t="s">
+      <c r="C52" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="B53" s="60"/>
-      <c r="C53" s="57">
+      <c r="D52" s="58"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="68"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" s="61"/>
+      <c r="C53" s="58">
         <v>9</v>
       </c>
-      <c r="D53" s="57"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="B54" s="57"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-    </row>
-    <row r="55" ht="409.5" spans="1:6">
-      <c r="A55" s="56" t="s">
+      <c r="D53" s="58"/>
+      <c r="E53" s="68"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="68"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="B55" s="57" t="s">
+      <c r="B54" s="58"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="58"/>
+      <c r="E54" s="68"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="68"/>
+    </row>
+    <row r="55" ht="409.5" spans="1:7">
+      <c r="A55" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="C55" s="57" t="s">
+      <c r="B55" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="D55" s="57"/>
-      <c r="E55" s="71" t="s">
+      <c r="C55" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="F55" s="71" t="s">
+      <c r="D55" s="58"/>
+      <c r="E55" s="73" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="56" ht="46" spans="1:6">
-      <c r="A56" s="57" t="s">
+      <c r="F55" s="73"/>
+      <c r="G55" s="73" t="s">
         <v>134</v>
       </c>
-      <c r="B56" s="57"/>
-      <c r="C56" s="57" t="s">
+    </row>
+    <row r="56" ht="46" spans="1:7">
+      <c r="A56" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="D56" s="57"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-    </row>
-    <row r="57" ht="31" spans="1:6">
-      <c r="A57" s="57" t="s">
+      <c r="B56" s="58"/>
+      <c r="C56" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="B57" s="57"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="57"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-    </row>
-    <row r="58" ht="168" spans="1:6">
-      <c r="A58" s="57" t="s">
+      <c r="D56" s="58"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="68"/>
+    </row>
+    <row r="57" ht="31" spans="1:7">
+      <c r="A57" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="B58" s="57"/>
-      <c r="C58" s="62" t="s">
+      <c r="B57" s="58"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="58"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
+    </row>
+    <row r="58" ht="168" spans="1:7">
+      <c r="A58" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="D58" s="57"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="57" t="s">
+      <c r="B58" s="58"/>
+      <c r="C58" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="B59" s="66"/>
-      <c r="C59" s="66"/>
-      <c r="D59" s="66"/>
-      <c r="E59" s="67"/>
-      <c r="F59" s="67"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="62" t="s">
+      <c r="D58" s="58"/>
+      <c r="E58" s="68"/>
+      <c r="F58" s="68"/>
+      <c r="G58" s="68"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="B60" s="66"/>
-      <c r="C60" s="66"/>
-      <c r="D60" s="67"/>
-      <c r="E60" s="67"/>
-      <c r="F60" s="67"/>
-    </row>
-    <row r="61" ht="122" spans="1:6">
-      <c r="A61" s="62" t="s">
+      <c r="B59" s="67"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="67"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="68"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="B61" s="66"/>
-      <c r="C61" s="62" t="s">
+      <c r="B60" s="67"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="68"/>
+      <c r="E60" s="68"/>
+      <c r="F60" s="68"/>
+      <c r="G60" s="68"/>
+    </row>
+    <row r="61" ht="122" spans="1:7">
+      <c r="A61" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="D61" s="67"/>
-      <c r="E61" s="67"/>
-      <c r="F61" s="67"/>
-    </row>
-    <row r="62" ht="107" spans="1:6">
-      <c r="A62" s="62" t="s">
+      <c r="B61" s="67"/>
+      <c r="C61" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="B62" s="66"/>
-      <c r="C62" s="62" t="s">
+      <c r="D61" s="68"/>
+      <c r="E61" s="68"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="68"/>
+    </row>
+    <row r="62" ht="107" spans="1:7">
+      <c r="A62" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="D62" s="67"/>
-      <c r="E62" s="67"/>
-      <c r="F62" s="67"/>
-    </row>
-    <row r="63" ht="31" spans="1:6">
-      <c r="A63" s="62" t="s">
+      <c r="B62" s="67"/>
+      <c r="C62" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="B63" s="62" t="s">
+      <c r="D62" s="68"/>
+      <c r="E62" s="68"/>
+      <c r="F62" s="68"/>
+      <c r="G62" s="68"/>
+    </row>
+    <row r="63" ht="31" spans="1:7">
+      <c r="A63" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="C63" s="62" t="s">
+      <c r="B63" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="D63" s="67"/>
-      <c r="E63" s="67"/>
-      <c r="F63" s="67"/>
-    </row>
-    <row r="64" ht="46" spans="1:6">
-      <c r="A64" s="68" t="s">
+      <c r="C63" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="B64" s="66" t="s">
+      <c r="D63" s="68"/>
+      <c r="E63" s="68"/>
+      <c r="F63" s="68"/>
+      <c r="G63" s="68"/>
+    </row>
+    <row r="64" ht="46" spans="1:7">
+      <c r="A64" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="C64" s="68" t="s">
+      <c r="B64" s="67" t="s">
         <v>150</v>
       </c>
-      <c r="D64" s="67"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
-    </row>
-    <row r="65" ht="61" spans="1:6">
-      <c r="A65" s="62" t="s">
+      <c r="C64" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="B65" s="62" t="s">
+      <c r="D64" s="68"/>
+      <c r="E64" s="68"/>
+      <c r="F64" s="68"/>
+      <c r="G64" s="68"/>
+    </row>
+    <row r="65" ht="61" spans="1:7">
+      <c r="A65" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="C65" s="62" t="s">
+      <c r="B65" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="D65" s="67"/>
-      <c r="E65" s="67"/>
-      <c r="F65" s="67"/>
-    </row>
-    <row r="66" ht="152" spans="1:6">
-      <c r="A66" s="62" t="s">
+      <c r="C65" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="B66" s="66"/>
-      <c r="C66" s="68" t="s">
+      <c r="D65" s="68"/>
+      <c r="E65" s="68"/>
+      <c r="F65" s="68"/>
+      <c r="G65" s="68"/>
+    </row>
+    <row r="66" ht="152" spans="1:7">
+      <c r="A66" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="D66" s="67"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="62" t="s">
+      <c r="B66" s="67"/>
+      <c r="C66" s="69" t="s">
         <v>156</v>
       </c>
-      <c r="B67" s="66"/>
-      <c r="C67" s="72"/>
-      <c r="D67" s="67"/>
-      <c r="E67" s="67"/>
-      <c r="F67" s="67"/>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="62" t="s">
+      <c r="D66" s="68"/>
+      <c r="E66" s="68"/>
+      <c r="F66" s="68"/>
+      <c r="G66" s="68"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="B68" s="66"/>
-      <c r="C68" s="66"/>
-      <c r="D68" s="67"/>
-      <c r="E68" s="67"/>
-      <c r="F68" s="67"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="62" t="s">
+      <c r="B67" s="67"/>
+      <c r="C67" s="74"/>
+      <c r="D67" s="68"/>
+      <c r="E67" s="68"/>
+      <c r="F67" s="68"/>
+      <c r="G67" s="68"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="B69" s="66"/>
-      <c r="C69" s="66"/>
-      <c r="D69" s="67"/>
-      <c r="E69" s="67"/>
-      <c r="F69" s="67"/>
-    </row>
-    <row r="70" ht="31" spans="1:6">
-      <c r="A70" s="62" t="s">
+      <c r="B68" s="67"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="68"/>
+      <c r="E68" s="68"/>
+      <c r="F68" s="68"/>
+      <c r="G68" s="68"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="63" t="s">
         <v>159</v>
       </c>
-      <c r="B70" s="66"/>
-      <c r="C70" s="68" t="s">
+      <c r="B69" s="67"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="68"/>
+      <c r="E69" s="68"/>
+      <c r="F69" s="68"/>
+      <c r="G69" s="68"/>
+    </row>
+    <row r="70" ht="31" spans="1:7">
+      <c r="A70" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="D70" s="67"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="71" t="s">
+      <c r="B70" s="67"/>
+      <c r="C70" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="B71" s="67"/>
-      <c r="C71" s="71"/>
-      <c r="D71" s="67"/>
-      <c r="E71" s="67"/>
-      <c r="F71" s="67"/>
-    </row>
-    <row r="72" ht="61" spans="1:6">
-      <c r="A72" s="73" t="s">
+      <c r="D70" s="68"/>
+      <c r="E70" s="68"/>
+      <c r="F70" s="68"/>
+      <c r="G70" s="68"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="B72" s="73" t="s">
+      <c r="B71" s="68"/>
+      <c r="C71" s="73"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="68"/>
+      <c r="F71" s="68"/>
+      <c r="G71" s="68"/>
+    </row>
+    <row r="72" ht="61" spans="1:7">
+      <c r="A72" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="C72" s="71" t="s">
+      <c r="B72" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="D72" s="67"/>
-      <c r="E72" s="67"/>
-      <c r="F72" s="67"/>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="71" t="s">
+      <c r="C72" s="73" t="s">
         <v>165</v>
       </c>
-      <c r="B73" s="67"/>
-      <c r="C73" s="67"/>
-      <c r="D73" s="67"/>
-      <c r="E73" s="67"/>
-      <c r="F73" s="67"/>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="67" t="s">
+      <c r="D72" s="68"/>
+      <c r="E72" s="68"/>
+      <c r="F72" s="68"/>
+      <c r="G72" s="68"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="B74" s="67"/>
-      <c r="C74" s="67"/>
-      <c r="D74" s="67"/>
-      <c r="E74" s="67"/>
-      <c r="F74" s="67"/>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="71" t="s">
+      <c r="B73" s="68"/>
+      <c r="C73" s="68"/>
+      <c r="D73" s="68"/>
+      <c r="E73" s="68"/>
+      <c r="F73" s="68"/>
+      <c r="G73" s="68"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="B75" s="67"/>
-      <c r="C75" s="67"/>
-      <c r="D75" s="67"/>
-      <c r="E75" s="67"/>
-      <c r="F75" s="67"/>
-    </row>
-    <row r="76" ht="137" spans="1:6">
-      <c r="A76" s="71" t="s">
+      <c r="B74" s="68"/>
+      <c r="C74" s="68"/>
+      <c r="D74" s="68"/>
+      <c r="E74" s="68"/>
+      <c r="F74" s="68"/>
+      <c r="G74" s="68"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="73" t="s">
         <v>168</v>
       </c>
-      <c r="B76" s="67"/>
-      <c r="C76" s="73" t="s">
+      <c r="B75" s="68"/>
+      <c r="C75" s="68"/>
+      <c r="D75" s="68"/>
+      <c r="E75" s="68"/>
+      <c r="F75" s="68"/>
+      <c r="G75" s="68"/>
+    </row>
+    <row r="76" ht="137" spans="1:7">
+      <c r="A76" s="73" t="s">
         <v>169</v>
       </c>
-      <c r="D76" s="67"/>
-      <c r="E76" s="67"/>
-      <c r="F76" s="67"/>
-    </row>
-    <row r="77" ht="320" spans="1:6">
-      <c r="A77" s="71" t="s">
+      <c r="B76" s="68"/>
+      <c r="C76" s="75" t="s">
         <v>170</v>
       </c>
-      <c r="B77" s="63" t="s">
+      <c r="D76" s="68"/>
+      <c r="E76" s="68"/>
+      <c r="F76" s="68"/>
+      <c r="G76" s="68"/>
+    </row>
+    <row r="77" ht="320" spans="1:7">
+      <c r="A77" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="C77" s="71" t="s">
+      <c r="B77" s="64" t="s">
         <v>172</v>
       </c>
-      <c r="D77" s="71"/>
-      <c r="E77" s="67"/>
-      <c r="F77" s="67"/>
-    </row>
-    <row r="78" ht="92" spans="1:6">
-      <c r="A78" s="71" t="s">
+      <c r="C77" s="73" t="s">
         <v>173</v>
       </c>
-      <c r="B78" s="71"/>
-      <c r="C78" s="71" t="s">
+      <c r="D77" s="73"/>
+      <c r="E77" s="68"/>
+      <c r="F77" s="68"/>
+      <c r="G77" s="68"/>
+    </row>
+    <row r="78" ht="92" spans="1:7">
+      <c r="A78" s="73" t="s">
         <v>174</v>
       </c>
-      <c r="D78" s="67"/>
-      <c r="E78" s="67"/>
-      <c r="F78" s="67"/>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="71" t="s">
+      <c r="B78" s="73"/>
+      <c r="C78" s="73" t="s">
         <v>175</v>
       </c>
-      <c r="B79" s="71"/>
-      <c r="C79" s="71"/>
-      <c r="D79" s="67"/>
-      <c r="E79" s="67"/>
-      <c r="F79" s="67"/>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="71" t="s">
+      <c r="D78" s="68"/>
+      <c r="E78" s="68"/>
+      <c r="F78" s="68"/>
+      <c r="G78" s="68"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="73" t="s">
         <v>176</v>
       </c>
-      <c r="B80" s="67"/>
-      <c r="C80" s="67"/>
-      <c r="D80" s="67"/>
-      <c r="E80" s="67"/>
-      <c r="F80" s="67"/>
-    </row>
-    <row r="81" ht="152" spans="1:6">
-      <c r="A81" s="71" t="s">
+      <c r="B79" s="73"/>
+      <c r="C79" s="73"/>
+      <c r="D79" s="68"/>
+      <c r="E79" s="68"/>
+      <c r="F79" s="68"/>
+      <c r="G79" s="68"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="73" t="s">
         <v>177</v>
       </c>
-      <c r="B81" s="67"/>
-      <c r="C81" s="71" t="s">
+      <c r="B80" s="68"/>
+      <c r="C80" s="68"/>
+      <c r="D80" s="68"/>
+      <c r="E80" s="68"/>
+      <c r="F80" s="68"/>
+      <c r="G80" s="68"/>
+    </row>
+    <row r="81" ht="152" spans="1:7">
+      <c r="A81" s="73" t="s">
         <v>178</v>
       </c>
-      <c r="D81" s="67"/>
-      <c r="E81" s="67"/>
-      <c r="F81" s="67"/>
-    </row>
-    <row r="82" ht="92" spans="1:6">
-      <c r="A82" s="71" t="s">
+      <c r="B81" s="68"/>
+      <c r="C81" s="73" t="s">
         <v>179</v>
       </c>
-      <c r="B82" s="71" t="s">
+      <c r="D81" s="68"/>
+      <c r="E81" s="68"/>
+      <c r="F81" s="68"/>
+      <c r="G81" s="68"/>
+    </row>
+    <row r="82" ht="92" spans="1:7">
+      <c r="A82" s="73" t="s">
         <v>180</v>
       </c>
-      <c r="C82" s="71" t="s">
+      <c r="B82" s="73" t="s">
         <v>181</v>
       </c>
-      <c r="D82" s="67"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="67"/>
-    </row>
-    <row r="83" ht="152" spans="1:6">
-      <c r="A83" s="71" t="s">
+      <c r="C82" s="73" t="s">
         <v>182</v>
       </c>
-      <c r="B83" s="67"/>
-      <c r="C83" s="63" t="s">
+      <c r="D82" s="68"/>
+      <c r="E82" s="68"/>
+      <c r="F82" s="68"/>
+      <c r="G82" s="68"/>
+    </row>
+    <row r="83" ht="152" spans="1:7">
+      <c r="A83" s="73" t="s">
         <v>183</v>
       </c>
-      <c r="D83" s="67"/>
-      <c r="E83" s="67"/>
-      <c r="F83" s="67"/>
-    </row>
-    <row r="84" ht="122" spans="1:6">
-      <c r="A84" s="71" t="s">
+      <c r="B83" s="68"/>
+      <c r="C83" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="B84" s="71" t="s">
+      <c r="D83" s="68"/>
+      <c r="E83" s="68"/>
+      <c r="F83" s="68"/>
+      <c r="G83" s="68"/>
+    </row>
+    <row r="84" ht="122" spans="1:7">
+      <c r="A84" s="73" t="s">
         <v>185</v>
       </c>
-      <c r="C84" s="71" t="s">
+      <c r="B84" s="73" t="s">
         <v>186</v>
       </c>
-      <c r="D84" s="67"/>
-      <c r="E84" s="67"/>
-      <c r="F84" s="67"/>
-    </row>
-    <row r="85" ht="137" spans="1:6">
-      <c r="A85" s="71" t="s">
+      <c r="C84" s="73" t="s">
         <v>187</v>
       </c>
-      <c r="B85" s="71" t="s">
+      <c r="D84" s="68"/>
+      <c r="E84" s="68"/>
+      <c r="F84" s="68"/>
+      <c r="G84" s="68"/>
+    </row>
+    <row r="85" ht="137" spans="1:7">
+      <c r="A85" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="C85" s="73" t="s">
+      <c r="B85" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="D85" s="67"/>
-      <c r="E85" s="67"/>
-      <c r="F85" s="67"/>
-    </row>
-    <row r="86" ht="61" spans="1:6">
-      <c r="A86" s="71" t="s">
+      <c r="C85" s="75" t="s">
         <v>190</v>
       </c>
-      <c r="B86" s="71" t="s">
+      <c r="D85" s="68"/>
+      <c r="E85" s="68"/>
+      <c r="F85" s="68"/>
+      <c r="G85" s="68"/>
+    </row>
+    <row r="86" ht="61" spans="1:7">
+      <c r="A86" s="73" t="s">
         <v>191</v>
       </c>
-      <c r="C86" s="71" t="s">
+      <c r="B86" s="73" t="s">
         <v>192</v>
       </c>
-      <c r="D86" s="67"/>
-      <c r="E86" s="67"/>
-      <c r="F86" s="67"/>
-    </row>
-    <row r="87" ht="228" spans="1:6">
-      <c r="A87" s="67" t="s">
+      <c r="C86" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="B87" s="67"/>
-      <c r="C87" s="71" t="s">
+      <c r="D86" s="68"/>
+      <c r="E86" s="68"/>
+      <c r="F86" s="68"/>
+      <c r="G86" s="68"/>
+    </row>
+    <row r="87" ht="228" spans="1:7">
+      <c r="A87" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="D87" s="67"/>
-      <c r="E87" s="67"/>
-      <c r="F87" s="67"/>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="67"/>
-      <c r="B88" s="67"/>
-      <c r="C88" s="67"/>
-      <c r="D88" s="67"/>
-      <c r="E88" s="67"/>
-      <c r="F88" s="67"/>
-    </row>
-    <row r="89" ht="46" spans="1:6">
-      <c r="A89" s="73" t="s">
+      <c r="B87" s="68"/>
+      <c r="C87" s="73" t="s">
         <v>195</v>
       </c>
-      <c r="B89" s="67"/>
-      <c r="C89" s="67" t="s">
+      <c r="D87" s="68"/>
+      <c r="E87" s="68"/>
+      <c r="F87" s="68"/>
+      <c r="G87" s="68"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="68"/>
+      <c r="B88" s="68"/>
+      <c r="C88" s="68"/>
+      <c r="D88" s="68"/>
+      <c r="E88" s="68"/>
+      <c r="F88" s="68"/>
+      <c r="G88" s="68"/>
+    </row>
+    <row r="89" ht="46" spans="1:7">
+      <c r="A89" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="D89" s="67"/>
-      <c r="E89" s="67"/>
-      <c r="F89" s="67"/>
-    </row>
-    <row r="90" ht="76" spans="1:6">
-      <c r="A90" s="71" t="s">
+      <c r="B89" s="68"/>
+      <c r="C89" s="68" t="s">
         <v>197</v>
       </c>
-      <c r="B90" s="67"/>
-      <c r="C90" s="71" t="s">
+      <c r="D89" s="68"/>
+      <c r="E89" s="68"/>
+      <c r="F89" s="68"/>
+      <c r="G89" s="68"/>
+    </row>
+    <row r="90" ht="76" spans="1:7">
+      <c r="A90" s="73" t="s">
         <v>198</v>
       </c>
-      <c r="D90" s="67"/>
-      <c r="E90" s="67"/>
-      <c r="F90" s="67"/>
-    </row>
-    <row r="91" ht="76" spans="1:6">
-      <c r="A91" s="67" t="s">
+      <c r="B90" s="68"/>
+      <c r="C90" s="73" t="s">
         <v>199</v>
       </c>
-      <c r="B91" s="67"/>
-      <c r="C91" s="73" t="s">
+      <c r="D90" s="68"/>
+      <c r="E90" s="68"/>
+      <c r="F90" s="68"/>
+      <c r="G90" s="68"/>
+    </row>
+    <row r="91" ht="76" spans="1:7">
+      <c r="A91" s="68" t="s">
         <v>200</v>
       </c>
-      <c r="D91" s="67"/>
-      <c r="E91" s="67"/>
-      <c r="F91" s="67"/>
-    </row>
-    <row r="92" ht="92" spans="1:6">
-      <c r="A92" s="71" t="s">
+      <c r="B91" s="68"/>
+      <c r="C91" s="75" t="s">
         <v>201</v>
       </c>
-      <c r="B92" s="67" t="s">
+      <c r="D91" s="68"/>
+      <c r="E91" s="68"/>
+      <c r="F91" s="68"/>
+      <c r="G91" s="68"/>
+    </row>
+    <row r="92" ht="92" spans="1:7">
+      <c r="A92" s="73" t="s">
         <v>202</v>
       </c>
-      <c r="C92" s="71" t="s">
+      <c r="B92" s="68" t="s">
         <v>203</v>
       </c>
-      <c r="D92" s="67"/>
-      <c r="E92" s="67"/>
-      <c r="F92" s="67"/>
-    </row>
-    <row r="93" ht="46" spans="1:6">
-      <c r="A93" s="71" t="s">
+      <c r="C92" s="73" t="s">
         <v>204</v>
       </c>
-      <c r="B93" s="71" t="s">
+      <c r="D92" s="68"/>
+      <c r="E92" s="68"/>
+      <c r="F92" s="68"/>
+      <c r="G92" s="68"/>
+    </row>
+    <row r="93" ht="46" spans="1:7">
+      <c r="A93" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="C93" s="71" t="s">
+      <c r="B93" s="73" t="s">
         <v>206</v>
       </c>
-      <c r="D93" s="67"/>
-      <c r="E93" s="60"/>
-      <c r="F93" s="71" t="s">
+      <c r="C93" s="73" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="94" ht="92" spans="1:6">
-      <c r="A94" s="71" t="s">
+      <c r="D93" s="68"/>
+      <c r="E93" s="61"/>
+      <c r="F93" s="61"/>
+      <c r="G93" s="73" t="s">
         <v>208</v>
       </c>
-      <c r="B94" s="67"/>
-      <c r="C94" s="71" t="s">
+    </row>
+    <row r="94" ht="92" spans="1:7">
+      <c r="A94" s="73" t="s">
         <v>209</v>
       </c>
-      <c r="D94" s="67"/>
-      <c r="E94" s="67"/>
-      <c r="F94" s="67"/>
-    </row>
-    <row r="95" ht="76" spans="1:6">
-      <c r="A95" s="71" t="s">
+      <c r="B94" s="68"/>
+      <c r="C94" s="73" t="s">
         <v>210</v>
       </c>
-      <c r="B95" s="67"/>
-      <c r="C95" s="71" t="s">
+      <c r="D94" s="68"/>
+      <c r="E94" s="68"/>
+      <c r="F94" s="68"/>
+      <c r="G94" s="68"/>
+    </row>
+    <row r="95" ht="76" spans="1:7">
+      <c r="A95" s="73" t="s">
         <v>211</v>
       </c>
-      <c r="D95" s="67"/>
-      <c r="E95" s="67"/>
-      <c r="F95" s="67"/>
-    </row>
-    <row r="96" ht="61" spans="1:6">
-      <c r="A96" s="71" t="s">
+      <c r="B95" s="68"/>
+      <c r="C95" s="73" t="s">
         <v>212</v>
       </c>
-      <c r="B96" s="67"/>
-      <c r="C96" s="71" t="s">
+      <c r="D95" s="68"/>
+      <c r="E95" s="68"/>
+      <c r="F95" s="68"/>
+      <c r="G95" s="68"/>
+    </row>
+    <row r="96" ht="61" spans="1:7">
+      <c r="A96" s="73" t="s">
         <v>213</v>
       </c>
-      <c r="D96" s="67"/>
-      <c r="E96" s="67"/>
-      <c r="F96" s="67"/>
-    </row>
-    <row r="97" ht="380" spans="1:6">
-      <c r="A97" s="71" t="s">
+      <c r="B96" s="68"/>
+      <c r="C96" s="73" t="s">
         <v>214</v>
       </c>
-      <c r="B97" s="67"/>
-      <c r="C97" s="73" t="s">
+      <c r="D96" s="68"/>
+      <c r="E96" s="68"/>
+      <c r="F96" s="68"/>
+      <c r="G96" s="68"/>
+    </row>
+    <row r="97" ht="380" spans="1:7">
+      <c r="A97" s="73" t="s">
         <v>215</v>
       </c>
-      <c r="D97" s="67"/>
-      <c r="E97" s="67"/>
-      <c r="F97" s="67"/>
-    </row>
-    <row r="98" ht="409.5" spans="1:6">
-      <c r="A98" s="74" t="s">
-        <v>54</v>
-      </c>
-      <c r="B98" s="75" t="s">
+      <c r="B97" s="68"/>
+      <c r="C97" s="75" t="s">
         <v>216</v>
       </c>
-      <c r="C98" s="73" t="s">
+      <c r="D97" s="68"/>
+      <c r="E97" s="68"/>
+      <c r="F97" s="68"/>
+      <c r="G97" s="68"/>
+    </row>
+    <row r="98" ht="409.5" spans="1:7">
+      <c r="A98" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="B98" s="77" t="s">
         <v>217</v>
       </c>
-      <c r="D98" s="67"/>
-      <c r="E98" s="67"/>
-      <c r="F98" s="67"/>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="67"/>
-      <c r="B99" s="67"/>
-      <c r="C99" s="67"/>
-      <c r="D99" s="67"/>
-      <c r="E99" s="67"/>
-      <c r="F99" s="67"/>
-    </row>
-    <row r="100" ht="168" spans="1:6">
-      <c r="A100" s="67" t="s">
+      <c r="C98" s="75" t="s">
         <v>218</v>
       </c>
-      <c r="B100" s="73" t="s">
+      <c r="D98" s="68"/>
+      <c r="E98" s="68"/>
+      <c r="F98" s="68"/>
+      <c r="G98" s="68"/>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="68"/>
+      <c r="B99" s="68"/>
+      <c r="C99" s="68"/>
+      <c r="D99" s="68"/>
+      <c r="E99" s="68"/>
+      <c r="F99" s="68"/>
+      <c r="G99" s="68"/>
+    </row>
+    <row r="100" ht="168" spans="1:7">
+      <c r="A100" s="68" t="s">
         <v>219</v>
       </c>
-      <c r="C100" s="67"/>
-      <c r="D100" s="67"/>
-      <c r="E100" s="67"/>
-      <c r="F100" s="67"/>
-    </row>
-    <row r="101" ht="274" spans="1:6">
-      <c r="A101" s="71" t="s">
+      <c r="B100" s="75" t="s">
         <v>220</v>
       </c>
-      <c r="B101" s="71" t="s">
+      <c r="C100" s="68"/>
+      <c r="D100" s="68"/>
+      <c r="E100" s="68"/>
+      <c r="F100" s="68"/>
+      <c r="G100" s="68"/>
+    </row>
+    <row r="101" ht="274" spans="1:7">
+      <c r="A101" s="73" t="s">
         <v>221</v>
       </c>
-      <c r="C101" s="71" t="s">
+      <c r="B101" s="73" t="s">
         <v>222</v>
       </c>
-      <c r="D101" s="73" t="s">
+      <c r="C101" s="73" t="s">
         <v>223</v>
       </c>
-      <c r="E101" s="73" t="s">
+      <c r="D101" s="75" t="s">
         <v>224</v>
       </c>
-      <c r="F101" s="71" t="s">
+      <c r="E101" s="75" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="102" ht="61" spans="1:6">
-      <c r="A102" s="71" t="s">
+      <c r="F101" s="75"/>
+      <c r="G101" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="B102" s="73" t="s">
+    </row>
+    <row r="102" ht="61" spans="1:7">
+      <c r="A102" s="73" t="s">
         <v>227</v>
       </c>
-      <c r="C102" s="71" t="s">
+      <c r="B102" s="75" t="s">
         <v>228</v>
       </c>
-      <c r="D102" s="67"/>
-      <c r="E102" s="67"/>
-      <c r="F102" s="67"/>
-    </row>
-    <row r="103" ht="152" spans="1:6">
-      <c r="A103" s="71" t="s">
+      <c r="C102" s="73" t="s">
         <v>229</v>
       </c>
-      <c r="B103" s="71" t="s">
+      <c r="D102" s="68"/>
+      <c r="E102" s="68"/>
+      <c r="F102" s="68"/>
+      <c r="G102" s="68"/>
+    </row>
+    <row r="103" ht="152" spans="1:7">
+      <c r="A103" s="73" t="s">
         <v>230</v>
       </c>
-      <c r="C103" s="73" t="s">
+      <c r="B103" s="73" t="s">
         <v>231</v>
       </c>
-      <c r="D103" s="67"/>
-      <c r="E103" s="67"/>
-      <c r="F103" s="67"/>
-    </row>
-    <row r="104" ht="92" spans="1:6">
-      <c r="A104" s="71" t="s">
+      <c r="C103" s="75" t="s">
         <v>232</v>
       </c>
-      <c r="B104" s="67"/>
-      <c r="C104" s="73" t="s">
+      <c r="D103" s="68"/>
+      <c r="E103" s="68"/>
+      <c r="F103" s="68"/>
+      <c r="G103" s="68"/>
+    </row>
+    <row r="104" ht="92" spans="1:7">
+      <c r="A104" s="73" t="s">
         <v>233</v>
       </c>
-      <c r="D104" s="67"/>
-      <c r="E104" s="67"/>
-      <c r="F104" s="67"/>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="67"/>
-      <c r="B105" s="67"/>
-      <c r="C105" s="67"/>
-      <c r="D105" s="67"/>
-      <c r="E105" s="67"/>
-      <c r="F105" s="67"/>
-    </row>
-    <row r="106" ht="61" spans="1:6">
-      <c r="A106" s="76" t="s">
+      <c r="B104" s="68"/>
+      <c r="C104" s="75" t="s">
         <v>234</v>
       </c>
-      <c r="B106" s="76"/>
-      <c r="C106" s="73" t="s">
+      <c r="D104" s="68"/>
+      <c r="E104" s="68"/>
+      <c r="F104" s="68"/>
+      <c r="G104" s="68"/>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="68"/>
+      <c r="B105" s="68"/>
+      <c r="C105" s="68"/>
+      <c r="D105" s="68"/>
+      <c r="E105" s="68"/>
+      <c r="F105" s="68"/>
+      <c r="G105" s="68"/>
+    </row>
+    <row r="106" ht="61" spans="1:7">
+      <c r="A106" s="78" t="s">
         <v>235</v>
       </c>
-      <c r="D106" s="67"/>
-      <c r="E106" s="67"/>
-      <c r="F106" s="67"/>
-    </row>
-    <row r="107" ht="107" spans="1:6">
-      <c r="A107" s="71" t="s">
+      <c r="B106" s="78"/>
+      <c r="C106" s="75" t="s">
         <v>236</v>
       </c>
-      <c r="B107" s="67" t="s">
+      <c r="D106" s="68"/>
+      <c r="E106" s="68"/>
+      <c r="F106" s="68"/>
+      <c r="G106" s="68"/>
+    </row>
+    <row r="107" ht="107" spans="1:7">
+      <c r="A107" s="73" t="s">
         <v>237</v>
       </c>
-      <c r="C107" s="73" t="s">
+      <c r="B107" s="68" t="s">
         <v>238</v>
       </c>
-      <c r="D107" s="67"/>
-      <c r="E107" s="67"/>
-      <c r="F107" s="67"/>
-    </row>
-    <row r="108" ht="107" spans="1:6">
-      <c r="A108" s="73" t="s">
+      <c r="C107" s="75" t="s">
         <v>239</v>
       </c>
-      <c r="B108" s="67" t="s">
+      <c r="D107" s="68"/>
+      <c r="E107" s="68"/>
+      <c r="F107" s="68"/>
+      <c r="G107" s="68"/>
+    </row>
+    <row r="108" ht="107" spans="1:7">
+      <c r="A108" s="75" t="s">
         <v>240</v>
       </c>
-      <c r="C108" s="77" t="s">
+      <c r="B108" s="68" t="s">
         <v>241</v>
       </c>
-      <c r="D108" s="67"/>
-      <c r="E108" s="67"/>
-      <c r="F108" s="67"/>
-    </row>
-    <row r="109" ht="92" spans="1:6">
-      <c r="A109" s="71" t="s">
+      <c r="C108" s="79" t="s">
         <v>242</v>
       </c>
-      <c r="B109" s="71"/>
-      <c r="C109" s="71" t="s">
+      <c r="D108" s="68"/>
+      <c r="E108" s="68"/>
+      <c r="F108" s="68"/>
+      <c r="G108" s="68"/>
+    </row>
+    <row r="109" ht="92" spans="1:7">
+      <c r="A109" s="73" t="s">
         <v>243</v>
       </c>
-      <c r="D109" s="67"/>
-      <c r="E109" s="67"/>
-      <c r="F109" s="67"/>
-    </row>
-    <row r="110" ht="228" spans="1:6">
-      <c r="A110" s="71" t="s">
+      <c r="B109" s="73"/>
+      <c r="C109" s="73" t="s">
         <v>244</v>
       </c>
-      <c r="B110" s="71" t="s">
+      <c r="D109" s="68"/>
+      <c r="E109" s="68"/>
+      <c r="F109" s="68"/>
+      <c r="G109" s="68"/>
+    </row>
+    <row r="110" ht="228" spans="1:7">
+      <c r="A110" s="73" t="s">
         <v>245</v>
       </c>
-      <c r="C110" s="73" t="s">
+      <c r="B110" s="73" t="s">
         <v>246</v>
       </c>
-      <c r="D110" s="67"/>
-      <c r="E110" s="67"/>
-      <c r="F110" s="67"/>
-    </row>
-    <row r="111" ht="107" spans="1:6">
-      <c r="A111" s="71" t="s">
+      <c r="C110" s="75" t="s">
         <v>247</v>
       </c>
-      <c r="B111" s="71" t="s">
+      <c r="D110" s="68"/>
+      <c r="E110" s="68"/>
+      <c r="F110" s="68"/>
+      <c r="G110" s="68"/>
+    </row>
+    <row r="111" ht="107" spans="1:7">
+      <c r="A111" s="73" t="s">
         <v>248</v>
       </c>
-      <c r="C111" s="73" t="s">
+      <c r="B111" s="73" t="s">
         <v>249</v>
       </c>
-      <c r="D111" s="71" t="s">
+      <c r="C111" s="75" t="s">
         <v>250</v>
       </c>
-      <c r="E111" s="67"/>
-      <c r="F111" s="67"/>
-    </row>
-    <row r="112" ht="46" spans="1:6">
-      <c r="A112" s="67" t="s">
+      <c r="D111" s="73" t="s">
         <v>251</v>
       </c>
-      <c r="B112" s="67" t="s">
+      <c r="E111" s="68"/>
+      <c r="F111" s="68"/>
+      <c r="G111" s="68"/>
+    </row>
+    <row r="112" ht="46" spans="1:7">
+      <c r="A112" s="68" t="s">
         <v>252</v>
       </c>
-      <c r="C112" s="67"/>
-      <c r="D112" s="67"/>
-      <c r="E112" s="67"/>
-      <c r="F112" s="67"/>
-    </row>
-    <row r="113" ht="92" spans="1:6">
-      <c r="A113" s="71" t="s">
+      <c r="B112" s="68" t="s">
         <v>253</v>
       </c>
-      <c r="B113" s="67"/>
-      <c r="C113" s="71" t="s">
+      <c r="C112" s="68"/>
+      <c r="D112" s="68"/>
+      <c r="E112" s="68"/>
+      <c r="F112" s="68"/>
+      <c r="G112" s="68"/>
+    </row>
+    <row r="113" ht="92" spans="1:7">
+      <c r="A113" s="73" t="s">
         <v>254</v>
       </c>
-      <c r="D113" s="67"/>
-      <c r="E113" s="67"/>
-      <c r="F113" s="67"/>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="67"/>
-      <c r="B114" s="67"/>
-      <c r="C114" s="67"/>
-      <c r="D114" s="67"/>
-      <c r="E114" s="67"/>
-      <c r="F114" s="67"/>
-    </row>
-    <row r="115" ht="92" spans="1:6">
-      <c r="A115" s="71" t="s">
+      <c r="B113" s="68"/>
+      <c r="C113" s="73" t="s">
         <v>255</v>
       </c>
-      <c r="B115" s="67"/>
-      <c r="C115" s="71" t="s">
+      <c r="D113" s="68"/>
+      <c r="E113" s="68"/>
+      <c r="F113" s="68"/>
+      <c r="G113" s="68"/>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="68"/>
+      <c r="B114" s="68"/>
+      <c r="C114" s="68"/>
+      <c r="D114" s="68"/>
+      <c r="E114" s="68"/>
+      <c r="F114" s="68"/>
+      <c r="G114" s="68"/>
+    </row>
+    <row r="115" ht="92" spans="1:7">
+      <c r="A115" s="73" t="s">
         <v>256</v>
       </c>
-      <c r="D115" s="67"/>
-      <c r="E115" s="67"/>
-      <c r="F115" s="67"/>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="67"/>
-      <c r="B116" s="67"/>
-      <c r="C116" s="67"/>
-      <c r="D116" s="67"/>
-      <c r="E116" s="67"/>
-      <c r="F116" s="67"/>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="67"/>
-      <c r="B117" s="67"/>
-      <c r="C117" s="67"/>
-      <c r="D117" s="67"/>
-      <c r="E117" s="67"/>
-      <c r="F117" s="67"/>
-    </row>
-    <row r="118" ht="93" spans="1:6">
-      <c r="A118" s="67" t="s">
+      <c r="B115" s="68"/>
+      <c r="C115" s="73" t="s">
         <v>257</v>
       </c>
-      <c r="B118" s="67"/>
-      <c r="C118" s="73" t="s">
+      <c r="D115" s="68"/>
+      <c r="E115" s="68"/>
+      <c r="F115" s="68"/>
+      <c r="G115" s="68"/>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="68"/>
+      <c r="B116" s="68"/>
+      <c r="C116" s="68"/>
+      <c r="D116" s="68"/>
+      <c r="E116" s="68"/>
+      <c r="F116" s="68"/>
+      <c r="G116" s="68"/>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="68"/>
+      <c r="B117" s="68"/>
+      <c r="C117" s="68"/>
+      <c r="D117" s="68"/>
+      <c r="E117" s="68"/>
+      <c r="F117" s="68"/>
+      <c r="G117" s="68"/>
+    </row>
+    <row r="118" ht="93" spans="1:7">
+      <c r="A118" s="68" t="s">
         <v>258</v>
       </c>
-      <c r="D118" s="67"/>
-      <c r="E118" s="67"/>
-      <c r="F118" s="67"/>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="67"/>
-      <c r="B119" s="67"/>
-      <c r="C119" s="67"/>
-      <c r="D119" s="67"/>
-      <c r="E119" s="67"/>
-      <c r="F119" s="67"/>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="67" t="s">
+      <c r="B118" s="68"/>
+      <c r="C118" s="75" t="s">
         <v>259</v>
       </c>
-      <c r="B120" s="67"/>
-      <c r="C120" s="67"/>
-      <c r="D120" s="67"/>
-      <c r="E120" s="67"/>
-      <c r="F120" s="67"/>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="67"/>
-      <c r="B121" s="67"/>
-      <c r="C121" s="67"/>
-      <c r="D121" s="67"/>
-      <c r="E121" s="67"/>
-      <c r="F121" s="67"/>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="67"/>
-      <c r="B122" s="67"/>
-      <c r="C122" s="67"/>
-      <c r="D122" s="67"/>
-      <c r="E122" s="67"/>
-      <c r="F122" s="67"/>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="67"/>
-      <c r="B123" s="67"/>
-      <c r="C123" s="67"/>
-      <c r="D123" s="67"/>
-      <c r="E123" s="67"/>
-      <c r="F123" s="67"/>
-    </row>
-    <row r="124" ht="61" spans="1:6">
-      <c r="A124" s="67"/>
-      <c r="B124" s="71" t="s">
+      <c r="D118" s="68"/>
+      <c r="E118" s="68"/>
+      <c r="F118" s="68"/>
+      <c r="G118" s="68"/>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="68"/>
+      <c r="B119" s="68"/>
+      <c r="C119" s="68"/>
+      <c r="D119" s="68"/>
+      <c r="E119" s="68"/>
+      <c r="F119" s="68"/>
+      <c r="G119" s="68"/>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="68" t="s">
         <v>260</v>
       </c>
-      <c r="C124" s="71" t="s">
+      <c r="B120" s="68"/>
+      <c r="C120" s="68"/>
+      <c r="D120" s="68"/>
+      <c r="E120" s="68"/>
+      <c r="F120" s="68"/>
+      <c r="G120" s="68"/>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="68"/>
+      <c r="B121" s="68"/>
+      <c r="C121" s="68"/>
+      <c r="D121" s="68"/>
+      <c r="E121" s="68"/>
+      <c r="F121" s="68"/>
+      <c r="G121" s="68"/>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="68"/>
+      <c r="B122" s="68"/>
+      <c r="C122" s="68"/>
+      <c r="D122" s="68"/>
+      <c r="E122" s="68"/>
+      <c r="F122" s="68"/>
+      <c r="G122" s="68"/>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="68"/>
+      <c r="B123" s="68"/>
+      <c r="C123" s="68"/>
+      <c r="D123" s="68"/>
+      <c r="E123" s="68"/>
+      <c r="F123" s="68"/>
+      <c r="G123" s="68"/>
+    </row>
+    <row r="124" ht="61" spans="1:7">
+      <c r="A124" s="68"/>
+      <c r="B124" s="73" t="s">
         <v>261</v>
       </c>
-      <c r="D124" s="67"/>
-      <c r="E124" s="67"/>
-      <c r="F124" s="67"/>
-    </row>
-    <row r="125" ht="107" spans="1:6">
-      <c r="A125" s="67"/>
-      <c r="B125" s="71" t="s">
+      <c r="C124" s="73" t="s">
         <v>262</v>
       </c>
-      <c r="C125" s="71" t="s">
+      <c r="D124" s="68"/>
+      <c r="E124" s="68"/>
+      <c r="F124" s="68"/>
+      <c r="G124" s="68"/>
+    </row>
+    <row r="125" ht="107" spans="1:7">
+      <c r="A125" s="68"/>
+      <c r="B125" s="73" t="s">
         <v>263</v>
       </c>
-      <c r="D125" s="67" t="s">
+      <c r="C125" s="73" t="s">
         <v>264</v>
       </c>
-      <c r="E125" s="67"/>
-      <c r="F125" s="67"/>
-    </row>
-    <row r="126" ht="31" spans="1:6">
-      <c r="A126" s="67"/>
-      <c r="B126" s="67"/>
-      <c r="C126" s="71" t="s">
+      <c r="D125" s="68" t="s">
         <v>265</v>
       </c>
-      <c r="D126" s="67"/>
-      <c r="E126" s="67"/>
-      <c r="F126" s="67"/>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="67"/>
-      <c r="B127" s="67"/>
-      <c r="C127" s="71"/>
-      <c r="D127" s="67"/>
-      <c r="E127" s="67"/>
-      <c r="F127" s="67"/>
-    </row>
-    <row r="128" ht="46" spans="1:6">
-      <c r="A128" s="67"/>
-      <c r="B128" s="67" t="s">
+      <c r="E125" s="68"/>
+      <c r="F125" s="68"/>
+      <c r="G125" s="68"/>
+    </row>
+    <row r="126" ht="31" spans="1:7">
+      <c r="A126" s="68"/>
+      <c r="B126" s="68"/>
+      <c r="C126" s="73" t="s">
         <v>266</v>
       </c>
-      <c r="C128" s="73" t="s">
+      <c r="D126" s="68"/>
+      <c r="E126" s="68"/>
+      <c r="F126" s="68"/>
+      <c r="G126" s="68"/>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="68"/>
+      <c r="B127" s="68"/>
+      <c r="C127" s="73"/>
+      <c r="D127" s="68"/>
+      <c r="E127" s="68"/>
+      <c r="F127" s="68"/>
+      <c r="G127" s="68"/>
+    </row>
+    <row r="128" ht="46" spans="1:7">
+      <c r="A128" s="68"/>
+      <c r="B128" s="68" t="s">
         <v>267</v>
       </c>
-      <c r="D128" s="67" t="s">
+      <c r="C128" s="75" t="s">
         <v>268</v>
       </c>
-      <c r="E128" s="67"/>
-      <c r="F128" s="67"/>
-    </row>
-    <row r="129" ht="61" spans="1:6">
-      <c r="A129" s="67"/>
-      <c r="B129" s="67"/>
-      <c r="C129" s="71" t="s">
+      <c r="D128" s="68" t="s">
         <v>269</v>
       </c>
-      <c r="D129" s="67"/>
-      <c r="E129" s="67"/>
-      <c r="F129" s="67"/>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="67"/>
-      <c r="B130" s="67"/>
-      <c r="C130" s="71"/>
-      <c r="D130" s="67"/>
-      <c r="E130" s="67"/>
-      <c r="F130" s="67"/>
-    </row>
-    <row r="131" ht="137" spans="1:6">
-      <c r="A131" s="67"/>
-      <c r="B131" s="71" t="s">
+      <c r="E128" s="68"/>
+      <c r="F128" s="68"/>
+      <c r="G128" s="68"/>
+    </row>
+    <row r="129" ht="61" spans="1:7">
+      <c r="A129" s="68"/>
+      <c r="B129" s="68"/>
+      <c r="C129" s="73" t="s">
         <v>270</v>
       </c>
-      <c r="C131" s="67"/>
-      <c r="D131" s="67"/>
-      <c r="E131" s="67"/>
-      <c r="F131" s="67"/>
-    </row>
-    <row r="132" ht="61" spans="1:6">
-      <c r="A132" s="67"/>
-      <c r="B132" s="71" t="s">
+      <c r="D129" s="68"/>
+      <c r="E129" s="68"/>
+      <c r="F129" s="68"/>
+      <c r="G129" s="68"/>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="68"/>
+      <c r="B130" s="68"/>
+      <c r="C130" s="73"/>
+      <c r="D130" s="68"/>
+      <c r="E130" s="68"/>
+      <c r="F130" s="68"/>
+      <c r="G130" s="68"/>
+    </row>
+    <row r="131" ht="137" spans="1:7">
+      <c r="A131" s="68"/>
+      <c r="B131" s="73" t="s">
         <v>271</v>
       </c>
-      <c r="C132" s="73" t="s">
+      <c r="C131" s="68"/>
+      <c r="D131" s="68"/>
+      <c r="E131" s="68"/>
+      <c r="F131" s="68"/>
+      <c r="G131" s="68"/>
+    </row>
+    <row r="132" ht="61" spans="1:7">
+      <c r="A132" s="68"/>
+      <c r="B132" s="73" t="s">
         <v>272</v>
       </c>
-      <c r="D132" s="67"/>
-      <c r="E132" s="67"/>
-      <c r="F132" s="67"/>
-    </row>
-    <row r="133" ht="46" spans="1:6">
-      <c r="A133" s="67"/>
-      <c r="B133" s="71" t="s">
+      <c r="C132" s="75" t="s">
         <v>273</v>
       </c>
-      <c r="C133" s="67"/>
-      <c r="D133" s="67"/>
-      <c r="E133" s="67"/>
-      <c r="F133" s="67"/>
-    </row>
-    <row r="134" ht="46" spans="1:6">
-      <c r="A134" s="67"/>
-      <c r="B134" s="71" t="s">
+      <c r="D132" s="68"/>
+      <c r="E132" s="68"/>
+      <c r="F132" s="68"/>
+      <c r="G132" s="68"/>
+    </row>
+    <row r="133" ht="46" spans="1:7">
+      <c r="A133" s="68"/>
+      <c r="B133" s="73" t="s">
         <v>274</v>
       </c>
-      <c r="C134" s="71" t="s">
+      <c r="C133" s="68"/>
+      <c r="D133" s="68"/>
+      <c r="E133" s="68"/>
+      <c r="F133" s="68"/>
+      <c r="G133" s="68"/>
+    </row>
+    <row r="134" ht="46" spans="1:7">
+      <c r="A134" s="68"/>
+      <c r="B134" s="73" t="s">
         <v>275</v>
       </c>
-      <c r="D134" s="67"/>
-      <c r="E134" s="67"/>
-      <c r="F134" s="67"/>
-    </row>
-    <row r="135" ht="76" spans="1:6">
-      <c r="A135" s="67"/>
-      <c r="B135" s="67" t="s">
+      <c r="C134" s="73" t="s">
         <v>276</v>
       </c>
-      <c r="C135" s="67"/>
-      <c r="D135" s="67"/>
-      <c r="E135" s="67"/>
-      <c r="F135" s="67"/>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="67"/>
-      <c r="B136" s="67" t="s">
+      <c r="D134" s="68"/>
+      <c r="E134" s="68"/>
+      <c r="F134" s="68"/>
+      <c r="G134" s="68"/>
+    </row>
+    <row r="135" ht="76" spans="1:7">
+      <c r="A135" s="68"/>
+      <c r="B135" s="68" t="s">
         <v>277</v>
       </c>
-      <c r="C136" s="67"/>
-      <c r="D136" s="67"/>
-      <c r="E136" s="67"/>
-      <c r="F136" s="67"/>
+      <c r="C135" s="68"/>
+      <c r="D135" s="68"/>
+      <c r="E135" s="68"/>
+      <c r="F135" s="68"/>
+      <c r="G135" s="68"/>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="68"/>
+      <c r="B136" s="68" t="s">
+        <v>278</v>
+      </c>
+      <c r="C136" s="68"/>
+      <c r="D136" s="68"/>
+      <c r="E136" s="68"/>
+      <c r="F136" s="68"/>
+      <c r="G136" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:F2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="decimal" operator="between" allowBlank="1" showErrorMessage="1" sqref="B53" errorStyle="warning">
@@ -4015,13 +4199,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="74" customHeight="1" spans="1:26">
       <c r="A1" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="35"/>
@@ -4066,7 +4250,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="39"/>
       <c r="H2" s="39"/>
@@ -4091,16 +4275,16 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="137" customHeight="1" spans="1:26">
       <c r="A3" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="31"/>
       <c r="F3" s="31"/>
@@ -4127,18 +4311,18 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="70" customHeight="1" spans="1:26">
       <c r="A4" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="40"/>
       <c r="F4" s="40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
@@ -4163,11 +4347,11 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A5" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="40"/>
@@ -4195,14 +4379,14 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A6" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="40"/>
       <c r="F6" s="40"/>
@@ -4229,13 +4413,13 @@
     </row>
     <row r="7" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A7" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="40"/>
@@ -4263,11 +4447,11 @@
     </row>
     <row r="8" s="1" customFormat="1" ht="60" customHeight="1" spans="1:26">
       <c r="A8" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="40"/>
@@ -4295,11 +4479,11 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A9" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="40"/>
@@ -4327,11 +4511,11 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A10" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="40"/>
@@ -4359,7 +4543,7 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A11" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="17"/>
@@ -4389,11 +4573,11 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A12" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="40"/>
@@ -4421,11 +4605,11 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A13" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="40"/>
@@ -4453,13 +4637,13 @@
     </row>
     <row r="14" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A14" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="40"/>
@@ -4487,11 +4671,11 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="104" customHeight="1" spans="1:26">
       <c r="A15" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="40"/>
@@ -4519,11 +4703,11 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="64" customHeight="1" spans="1:26">
       <c r="A16" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="40"/>
@@ -4551,16 +4735,16 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="73" customHeight="1" spans="1:26">
       <c r="A17" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E17" s="40"/>
       <c r="F17" s="40"/>
@@ -4587,11 +4771,11 @@
     </row>
     <row r="18" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A18" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="40"/>
@@ -4619,13 +4803,13 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A19" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="40"/>
@@ -4653,11 +4837,11 @@
     </row>
     <row r="20" s="1" customFormat="1" ht="59" customHeight="1" spans="1:26">
       <c r="A20" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="40"/>
@@ -4685,16 +4869,16 @@
     </row>
     <row r="21" s="1" customFormat="1" ht="78" customHeight="1" spans="1:26">
       <c r="A21" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E21" s="40"/>
       <c r="F21" s="40"/>
@@ -4721,11 +4905,11 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A22" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="40"/>
@@ -4753,11 +4937,11 @@
     </row>
     <row r="23" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A23" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="40"/>
@@ -4785,11 +4969,11 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A24" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="40"/>
@@ -4817,13 +5001,13 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="96" customHeight="1" spans="1:26">
       <c r="A25" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="40"/>
@@ -4851,13 +5035,13 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="58" customHeight="1" spans="1:26">
       <c r="A26" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="40"/>
@@ -4885,11 +5069,11 @@
     </row>
     <row r="27" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A27" s="15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="40"/>
@@ -4917,14 +5101,14 @@
     </row>
     <row r="28" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A28" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E28" s="40"/>
       <c r="F28" s="40"/>
@@ -4951,16 +5135,16 @@
     </row>
     <row r="29" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A29" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E29" s="40"/>
       <c r="F29" s="40"/>
@@ -4987,11 +5171,11 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A30" s="15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B30" s="15"/>
       <c r="C30" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="40"/>
@@ -5019,16 +5203,16 @@
     </row>
     <row r="31" s="1" customFormat="1" ht="62" customHeight="1" spans="1:26">
       <c r="A31" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E31" s="40"/>
       <c r="F31" s="40"/>
@@ -5055,11 +5239,11 @@
     </row>
     <row r="32" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A32" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="40"/>
@@ -5087,11 +5271,11 @@
     </row>
     <row r="33" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A33" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="40"/>
@@ -5119,14 +5303,14 @@
     </row>
     <row r="34" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A34" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B34" s="15"/>
       <c r="C34" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E34" s="40"/>
       <c r="F34" s="40"/>
@@ -5153,13 +5337,13 @@
     </row>
     <row r="35" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A35" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="17" t="s">
         <v>90</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>89</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="40"/>
@@ -5187,11 +5371,11 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A36" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="40"/>
@@ -5219,14 +5403,14 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A37" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B37" s="15"/>
       <c r="C37" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E37" s="40"/>
       <c r="F37" s="40"/>
@@ -5253,13 +5437,13 @@
     </row>
     <row r="38" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A38" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="40"/>
@@ -5287,11 +5471,11 @@
     </row>
     <row r="39" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A39" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B39" s="15"/>
       <c r="C39" s="17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D39" s="17"/>
       <c r="E39" s="40"/>
@@ -5319,7 +5503,7 @@
     </row>
     <row r="40" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A40" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B40" s="15"/>
       <c r="C40" s="20"/>
@@ -5349,11 +5533,11 @@
     </row>
     <row r="41" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A41" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B41" s="15"/>
       <c r="C41" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="40"/>
@@ -5381,11 +5565,11 @@
     </row>
     <row r="42" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A42" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B42" s="15"/>
       <c r="C42" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="40"/>
@@ -5413,13 +5597,13 @@
     </row>
     <row r="43" s="1" customFormat="1" ht="108" customHeight="1" spans="1:26">
       <c r="A43" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D43" s="17"/>
       <c r="E43" s="40"/>
@@ -5447,13 +5631,13 @@
     </row>
     <row r="44" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A44" s="15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="40"/>
@@ -5481,14 +5665,14 @@
     </row>
     <row r="45" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A45" s="22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B45" s="15"/>
       <c r="C45" s="23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E45" s="40"/>
       <c r="F45" s="40"/>
@@ -5515,13 +5699,13 @@
     </row>
     <row r="46" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A46" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="40"/>
@@ -5549,7 +5733,7 @@
     </row>
     <row r="47" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A47" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B47" s="15"/>
       <c r="C47" s="17"/>
@@ -5579,7 +5763,7 @@
     </row>
     <row r="48" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A48" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B48" s="15"/>
       <c r="C48" s="17"/>
@@ -5609,7 +5793,7 @@
     </row>
     <row r="49" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A49" s="15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B49" s="15"/>
       <c r="C49" s="17"/>
@@ -5639,11 +5823,11 @@
     </row>
     <row r="50" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A50" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B50" s="15"/>
       <c r="C50" s="24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="40"/>
@@ -5671,13 +5855,13 @@
     </row>
     <row r="51" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A51" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="40"/>
@@ -5705,7 +5889,7 @@
     </row>
     <row r="52" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A52" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="17">
@@ -5737,7 +5921,7 @@
     </row>
     <row r="53" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A53" s="15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B53" s="15"/>
       <c r="C53" s="17"/>
@@ -5767,20 +5951,20 @@
     </row>
     <row r="54" s="1" customFormat="1" ht="187" customHeight="1" spans="1:26">
       <c r="A54" s="16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="41" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F54" s="41" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G54" s="40"/>
       <c r="H54" s="40"/>
@@ -5805,11 +5989,11 @@
     </row>
     <row r="55" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A55" s="15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B55" s="15"/>
       <c r="C55" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="40"/>
@@ -5837,7 +6021,7 @@
     </row>
     <row r="56" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A56" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B56" s="15"/>
       <c r="C56" s="17"/>
@@ -5867,11 +6051,11 @@
     </row>
     <row r="57" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A57" s="15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B57" s="15"/>
       <c r="C57" s="26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D57" s="17"/>
       <c r="E57" s="40"/>
@@ -5899,7 +6083,7 @@
     </row>
     <row r="58" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A58" s="27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B58" s="28"/>
       <c r="C58" s="29"/>
@@ -5929,7 +6113,7 @@
     </row>
     <row r="59" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A59" s="22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B59" s="31"/>
       <c r="C59" s="30"/>
@@ -5959,11 +6143,11 @@
     </row>
     <row r="60" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A60" s="22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B60" s="31"/>
       <c r="C60" s="26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D60" s="32"/>
       <c r="E60" s="40"/>
@@ -5991,11 +6175,11 @@
     </row>
     <row r="61" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A61" s="22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B61" s="31"/>
       <c r="C61" s="26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D61" s="32"/>
       <c r="E61" s="40"/>
@@ -6023,13 +6207,13 @@
     </row>
     <row r="62" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A62" s="22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D62" s="32"/>
       <c r="E62" s="40"/>
@@ -6057,13 +6241,13 @@
     </row>
     <row r="63" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A63" s="33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C63" s="34" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D63" s="32"/>
       <c r="E63" s="40"/>
@@ -6091,13 +6275,13 @@
     </row>
     <row r="64" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A64" s="22" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D64" s="32"/>
       <c r="E64" s="40"/>
@@ -6125,11 +6309,11 @@
     </row>
     <row r="65" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A65" s="22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B65" s="31"/>
       <c r="C65" s="34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D65" s="32"/>
       <c r="E65" s="40"/>
@@ -6157,7 +6341,7 @@
     </row>
     <row r="66" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A66" s="26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B66" s="31"/>
       <c r="C66" s="42"/>
@@ -6187,7 +6371,7 @@
     </row>
     <row r="67" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A67" s="22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B67" s="31"/>
       <c r="C67" s="30"/>
@@ -6217,7 +6401,7 @@
     </row>
     <row r="68" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A68" s="22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B68" s="31"/>
       <c r="C68" s="30"/>
@@ -6247,11 +6431,11 @@
     </row>
     <row r="69" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A69" s="22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B69" s="31"/>
       <c r="C69" s="34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D69" s="32"/>
       <c r="E69" s="40"/>
@@ -6279,7 +6463,7 @@
     </row>
     <row r="70" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A70" s="41" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B70" s="40"/>
       <c r="C70" s="43"/>
@@ -6309,13 +6493,13 @@
     </row>
     <row r="71" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A71" s="44" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B71" s="44" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C71" s="43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D71" s="32"/>
       <c r="E71" s="40"/>
@@ -6343,7 +6527,7 @@
     </row>
     <row r="72" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A72" s="41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B72" s="40"/>
       <c r="C72" s="32"/>
@@ -6373,7 +6557,7 @@
     </row>
     <row r="73" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A73" s="40" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B73" s="40"/>
       <c r="C73" s="32"/>
@@ -6403,7 +6587,7 @@
     </row>
     <row r="74" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A74" s="41" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B74" s="40"/>
       <c r="C74" s="32"/>
@@ -6433,11 +6617,11 @@
     </row>
     <row r="75" s="1" customFormat="1" ht="63" customHeight="1" spans="1:26">
       <c r="A75" s="41" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B75" s="40"/>
       <c r="C75" s="45" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D75" s="32"/>
       <c r="E75" s="40"/>
@@ -6465,13 +6649,13 @@
     </row>
     <row r="76" s="1" customFormat="1" ht="63" customHeight="1" spans="1:26">
       <c r="A76" s="41" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B76" s="46" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C76" s="43" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D76" s="43"/>
       <c r="E76" s="40"/>
@@ -6499,11 +6683,11 @@
     </row>
     <row r="77" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A77" s="41" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B77" s="41"/>
       <c r="C77" s="43" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D77" s="32"/>
       <c r="E77" s="40"/>
@@ -6531,7 +6715,7 @@
     </row>
     <row r="78" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A78" s="41" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B78" s="41"/>
       <c r="C78" s="43"/>
@@ -6561,7 +6745,7 @@
     </row>
     <row r="79" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A79" s="41" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B79" s="40"/>
       <c r="C79" s="32"/>
@@ -6591,11 +6775,11 @@
     </row>
     <row r="80" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A80" s="41" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B80" s="40"/>
       <c r="C80" s="43" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D80" s="32"/>
       <c r="E80" s="40"/>
@@ -6623,13 +6807,13 @@
     </row>
     <row r="81" s="1" customFormat="1" ht="54" customHeight="1" spans="1:26">
       <c r="A81" s="41" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B81" s="41" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C81" s="43" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D81" s="32"/>
       <c r="E81" s="40"/>
@@ -6657,11 +6841,11 @@
     </row>
     <row r="82" s="1" customFormat="1" ht="85" customHeight="1" spans="1:26">
       <c r="A82" s="41" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B82" s="40"/>
       <c r="C82" s="23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D82" s="32"/>
       <c r="E82" s="40"/>
@@ -6689,13 +6873,13 @@
     </row>
     <row r="83" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A83" s="41" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B83" s="41" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C83" s="43" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D83" s="32"/>
       <c r="E83" s="40"/>
@@ -6723,13 +6907,13 @@
     </row>
     <row r="84" s="1" customFormat="1" ht="79" customHeight="1" spans="1:26">
       <c r="A84" s="41" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B84" s="41" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C84" s="45" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D84" s="32"/>
       <c r="E84" s="40"/>
@@ -6757,13 +6941,13 @@
     </row>
     <row r="85" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A85" s="41" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B85" s="41" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C85" s="43" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D85" s="32"/>
       <c r="E85" s="40"/>
@@ -6791,11 +6975,11 @@
     </row>
     <row r="86" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A86" s="40" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B86" s="40"/>
       <c r="C86" s="43" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D86" s="32"/>
       <c r="E86" s="40"/>
@@ -6851,11 +7035,11 @@
     </row>
     <row r="88" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A88" s="44" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B88" s="40"/>
       <c r="C88" s="32" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D88" s="32"/>
       <c r="E88" s="40"/>
@@ -6883,11 +7067,11 @@
     </row>
     <row r="89" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A89" s="41" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B89" s="40"/>
       <c r="C89" s="43" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D89" s="32"/>
       <c r="E89" s="40"/>
@@ -6915,11 +7099,11 @@
     </row>
     <row r="90" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A90" s="40" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B90" s="40"/>
       <c r="C90" s="45" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D90" s="32"/>
       <c r="E90" s="40"/>
@@ -6947,13 +7131,13 @@
     </row>
     <row r="91" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A91" s="41" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B91" s="40" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C91" s="43" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D91" s="32"/>
       <c r="E91" s="40"/>
@@ -6981,18 +7165,18 @@
     </row>
     <row r="92" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A92" s="41" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B92" s="41" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C92" s="43" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D92" s="32"/>
       <c r="E92" s="20"/>
       <c r="F92" s="41" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G92" s="40"/>
       <c r="H92" s="40"/>
@@ -7017,11 +7201,11 @@
     </row>
     <row r="93" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A93" s="41" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B93" s="40"/>
       <c r="C93" s="43" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D93" s="32"/>
       <c r="E93" s="40"/>
@@ -7049,11 +7233,11 @@
     </row>
     <row r="94" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A94" s="41" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B94" s="40"/>
       <c r="C94" s="43" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D94" s="32"/>
       <c r="E94" s="40"/>
@@ -7081,11 +7265,11 @@
     </row>
     <row r="95" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A95" s="41" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B95" s="40"/>
       <c r="C95" s="43" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D95" s="32"/>
       <c r="E95" s="40"/>
@@ -7113,11 +7297,11 @@
     </row>
     <row r="96" s="1" customFormat="1" ht="112" customHeight="1" spans="1:26">
       <c r="A96" s="41" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B96" s="40"/>
       <c r="C96" s="45" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D96" s="32"/>
       <c r="E96" s="40"/>
@@ -7145,13 +7329,13 @@
     </row>
     <row r="97" s="1" customFormat="1" ht="224" customHeight="1" spans="1:26">
       <c r="A97" s="47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B97" s="48" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C97" s="45" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D97" s="32"/>
       <c r="E97" s="40"/>
@@ -7207,10 +7391,10 @@
     </row>
     <row r="99" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A99" s="40" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B99" s="44" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C99" s="32"/>
       <c r="D99" s="32"/>
@@ -7239,22 +7423,22 @@
     </row>
     <row r="100" s="1" customFormat="1" ht="176" customHeight="1" spans="1:26">
       <c r="A100" s="41" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B100" s="41" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C100" s="43" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D100" s="45" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E100" s="44" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F100" s="41" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G100" s="40"/>
       <c r="H100" s="40"/>
@@ -7279,13 +7463,13 @@
     </row>
     <row r="101" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A101" s="41" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B101" s="44" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C101" s="41" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D101" s="32"/>
       <c r="E101" s="40"/>
@@ -7313,13 +7497,13 @@
     </row>
     <row r="102" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A102" s="41" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B102" s="41" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C102" s="45" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D102" s="32"/>
       <c r="E102" s="40"/>
@@ -7347,11 +7531,11 @@
     </row>
     <row r="103" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A103" s="41" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B103" s="40"/>
       <c r="C103" s="45" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D103" s="32"/>
       <c r="E103" s="40"/>
@@ -7407,11 +7591,11 @@
     </row>
     <row r="105" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A105" s="49" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B105" s="50"/>
       <c r="C105" s="45" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D105" s="32"/>
       <c r="E105" s="40"/>
@@ -7439,13 +7623,13 @@
     </row>
     <row r="106" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A106" s="41" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B106" s="40" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C106" s="45" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D106" s="32"/>
       <c r="E106" s="40"/>
@@ -7473,13 +7657,13 @@
     </row>
     <row r="107" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A107" s="44" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B107" s="40" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C107" s="51" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D107" s="32"/>
       <c r="E107" s="40"/>
@@ -7507,11 +7691,11 @@
     </row>
     <row r="108" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A108" s="41" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B108" s="41"/>
       <c r="C108" s="43" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D108" s="32"/>
       <c r="E108" s="40"/>
@@ -7539,13 +7723,13 @@
     </row>
     <row r="109" s="1" customFormat="1" ht="128" customHeight="1" spans="1:26">
       <c r="A109" s="41" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B109" s="43" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C109" s="45" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D109" s="32"/>
       <c r="E109" s="40"/>
@@ -7573,16 +7757,16 @@
     </row>
     <row r="110" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A110" s="41" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B110" s="41" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C110" s="45" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D110" s="43" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E110" s="40"/>
       <c r="F110" s="40"/>
@@ -7609,10 +7793,10 @@
     </row>
     <row r="111" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A111" s="40" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B111" s="40" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C111" s="32"/>
       <c r="D111" s="32"/>
@@ -7641,11 +7825,11 @@
     </row>
     <row r="112" s="1" customFormat="1" ht="42" customHeight="1" spans="1:26">
       <c r="A112" s="41" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B112" s="40"/>
       <c r="C112" s="43" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D112" s="32"/>
       <c r="E112" s="40"/>
@@ -7701,11 +7885,11 @@
     </row>
     <row r="114" s="1" customFormat="1" ht="31" spans="1:26">
       <c r="A114" s="41" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B114" s="40"/>
       <c r="C114" s="43" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D114" s="32"/>
       <c r="E114" s="40"/>
@@ -7789,11 +7973,11 @@
     </row>
     <row r="117" s="1" customFormat="1" ht="48" customHeight="1" spans="1:26">
       <c r="A117" s="40" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B117" s="40"/>
       <c r="C117" s="45" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D117" s="32"/>
       <c r="E117" s="40"/>
@@ -7849,7 +8033,7 @@
     </row>
     <row r="119" s="1" customFormat="1" spans="1:26">
       <c r="A119" s="40" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B119" s="40"/>
       <c r="C119" s="32"/>
@@ -7964,10 +8148,10 @@
     <row r="123" s="1" customFormat="1" spans="1:26">
       <c r="A123" s="40"/>
       <c r="B123" s="41" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C123" s="43" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D123" s="32"/>
       <c r="E123" s="40"/>
@@ -7996,13 +8180,13 @@
     <row r="124" s="1" customFormat="1" ht="31" spans="1:26">
       <c r="A124" s="40"/>
       <c r="B124" s="41" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C124" s="43" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D124" s="32" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E124" s="40"/>
       <c r="F124" s="40"/>
@@ -8031,7 +8215,7 @@
       <c r="A125" s="40"/>
       <c r="B125" s="40"/>
       <c r="C125" s="43" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D125" s="32"/>
       <c r="E125" s="40"/>
@@ -8088,13 +8272,13 @@
     <row r="127" s="1" customFormat="1" ht="31" spans="1:26">
       <c r="A127" s="40"/>
       <c r="B127" s="40" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C127" s="45" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D127" s="32" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E127" s="40"/>
       <c r="F127" s="40"/>
@@ -8123,7 +8307,7 @@
       <c r="A128" s="40"/>
       <c r="B128" s="40"/>
       <c r="C128" s="43" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D128" s="32"/>
       <c r="E128" s="40"/>
@@ -8180,7 +8364,7 @@
     <row r="130" s="1" customFormat="1" ht="36" customHeight="1" spans="1:26">
       <c r="A130" s="40"/>
       <c r="B130" s="43" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C130" s="32"/>
       <c r="D130" s="32"/>
@@ -8210,10 +8394,10 @@
     <row r="131" s="1" customFormat="1" spans="1:26">
       <c r="A131" s="40"/>
       <c r="B131" s="41" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C131" s="45" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D131" s="32"/>
       <c r="E131" s="40"/>
@@ -8242,7 +8426,7 @@
     <row r="132" s="1" customFormat="1" spans="1:26">
       <c r="A132" s="40"/>
       <c r="B132" s="41" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C132" s="32"/>
       <c r="D132" s="32"/>
@@ -8272,10 +8456,10 @@
     <row r="133" s="1" customFormat="1" spans="1:26">
       <c r="A133" s="40"/>
       <c r="B133" s="41" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C133" s="43" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D133" s="32"/>
       <c r="E133" s="40"/>
@@ -8388,7 +8572,7 @@
     <row r="137" s="1" customFormat="1" spans="1:26">
       <c r="A137" s="40"/>
       <c r="B137" s="40" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C137" s="32"/>
       <c r="D137" s="32"/>
@@ -8418,7 +8602,7 @@
     <row r="138" s="1" customFormat="1" spans="1:26">
       <c r="A138" s="40"/>
       <c r="B138" s="40" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C138" s="32"/>
       <c r="D138" s="32"/>
